--- a/Osativa/05_excel/mo20a.xlsx
+++ b/Osativa/05_excel/mo20a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/4B67BF74-0119-44B7-B6B9-53E9011EF63F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Osativa/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/98B8C77B-C484-42C7-B7A4-4928C740706C/192.168.10.18/disk6/pzhou/projects/barn/Osativa/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53CC95-1AA2-9147-A804-91B186CEFC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328A2ED-8FDE-5944-A087-9E50C7FA54FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="8540" windowWidth="16180" windowHeight="13400" xr2:uid="{16E30308-8AB0-334E-A672-C293F5FA03D6}"/>
+    <workbookView xWindow="13380" yWindow="7600" windowWidth="16180" windowHeight="13400" xr2:uid="{16E30308-8AB0-334E-A672-C293F5FA03D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>M39</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M39_2_2.fq.gz</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -552,15 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283A2CE-8588-7C43-8745-FB85E4B41274}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -577,16 +578,19 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -596,14 +600,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -613,14 +620,17 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -630,14 +640,17 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -647,14 +660,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -664,14 +680,17 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -681,14 +700,17 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -698,14 +720,17 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -715,14 +740,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -732,14 +760,17 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -749,14 +780,17 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -766,14 +800,17 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -783,10 +820,13 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>55</v>
       </c>
     </row>
